--- a/src/templates/attributes.xlsx
+++ b/src/templates/attributes.xlsx
@@ -11,27 +11,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="11">
-  <si>
-    <t xml:space="preserve">Attribute
-Name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label Name
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Label Description
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Attribute Type
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Mandatory
-</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+  <si>
+    <t>Attribute Name</t>
+  </si>
+  <si>
+    <t>Label Name</t>
+  </si>
+  <si>
+    <t>Label Description</t>
+  </si>
+  <si>
+    <t>Attribute Type</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
   </si>
   <si>
     <t>Constraint</t>
@@ -40,8 +34,7 @@
     <t>Reference Master</t>
   </si>
   <si>
-    <t xml:space="preserve">Status
-</t>
+    <t>Status</t>
   </si>
   <si>
     <t>Name</t>
@@ -51,6 +44,18 @@
   </si>
   <si>
     <t>textBox</t>
+  </si>
+  <si>
+    <t>Colour</t>
+  </si>
+  <si>
+    <t>About</t>
+  </si>
+  <si>
+    <t>This is the description</t>
+  </si>
+  <si>
+    <t>textArea</t>
   </si>
 </sst>
 </file>
@@ -60,7 +65,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -81,12 +86,6 @@
       <sz val="13"/>
       <color indexed="8"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b val="1"/>
-      <sz val="10"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
     </font>
   </fonts>
   <fills count="5">
@@ -149,7 +148,7 @@
         <color indexed="11"/>
       </top>
       <bottom style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </bottom>
       <diagonal/>
     </border>
@@ -161,7 +160,7 @@
         <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
+        <color indexed="11"/>
       </top>
       <bottom style="thin">
         <color indexed="10"/>
@@ -174,7 +173,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -193,10 +192,13 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1285,17 +1287,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="8" width="16.3516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="21.3047" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.3516" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7266" style="1" customWidth="1"/>
+    <col min="4" max="4" width="19.9375" style="1" customWidth="1"/>
+    <col min="5" max="6" width="16.3516" style="1" customWidth="1"/>
+    <col min="7" max="7" width="23.9766" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.3516" style="1" customWidth="1"/>
     <col min="9" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="44.05" customHeight="1">
+    <row r="1" ht="17.55" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
@@ -1338,212 +1346,38 @@
         <v>0</v>
       </c>
       <c r="F2" t="b" s="5">
-        <v>0</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G2" t="s" s="4">
+        <v>11</v>
+      </c>
       <c r="H2" t="b" s="5">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="20.05" customHeight="1">
-      <c r="A3" s="7"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-    </row>
-    <row r="4" ht="20.05" customHeight="1">
-      <c r="A4" s="7"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-    </row>
-    <row r="5" ht="20.05" customHeight="1">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="8"/>
-      <c r="H5" s="8"/>
-    </row>
-    <row r="6" ht="20.05" customHeight="1">
-      <c r="A6" s="7"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-    </row>
-    <row r="7" ht="20.05" customHeight="1">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-    </row>
-    <row r="8" ht="20.05" customHeight="1">
-      <c r="A8" s="7"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-    </row>
-    <row r="9" ht="20.05" customHeight="1">
-      <c r="A9" s="7"/>
-      <c r="B9" s="8"/>
-      <c r="C9" s="8"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-    </row>
-    <row r="10" ht="20.05" customHeight="1">
-      <c r="A10" s="7"/>
-      <c r="B10" s="8"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-    </row>
-    <row r="11" ht="20.05" customHeight="1">
-      <c r="A11" s="7"/>
-      <c r="B11" s="8"/>
-      <c r="C11" s="8"/>
-      <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-    </row>
-    <row r="12" ht="20.05" customHeight="1">
-      <c r="A12" s="7"/>
-      <c r="B12" s="8"/>
-      <c r="C12" s="8"/>
-      <c r="D12" s="8"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-    </row>
-    <row r="13" ht="20.05" customHeight="1">
-      <c r="A13" s="7"/>
-      <c r="B13" s="8"/>
-      <c r="C13" s="8"/>
-      <c r="D13" s="8"/>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-    </row>
-    <row r="14" ht="20.05" customHeight="1">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-    </row>
-    <row r="15" ht="20.05" customHeight="1">
-      <c r="A15" s="7"/>
-      <c r="B15" s="8"/>
-      <c r="C15" s="8"/>
-      <c r="D15" s="8"/>
-      <c r="E15" s="8"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-    </row>
-    <row r="16" ht="20.05" customHeight="1">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-    </row>
-    <row r="17" ht="20.05" customHeight="1">
-      <c r="A17" s="7"/>
-      <c r="B17" s="8"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-    </row>
-    <row r="18" ht="20.05" customHeight="1">
-      <c r="A18" s="7"/>
-      <c r="B18" s="8"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-    </row>
-    <row r="19" ht="20.05" customHeight="1">
-      <c r="A19" s="7"/>
-      <c r="B19" s="8"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-    </row>
-    <row r="20" ht="20.05" customHeight="1">
-      <c r="A20" s="7"/>
-      <c r="B20" s="8"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-    </row>
-    <row r="21" ht="20.05" customHeight="1">
-      <c r="A21" s="7"/>
-      <c r="B21" s="8"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-    </row>
-    <row r="22" ht="20.05" customHeight="1">
-      <c r="A22" s="7"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-      <c r="G22" s="8"/>
-      <c r="H22" s="8"/>
+      <c r="A3" t="s" s="6">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s" s="7">
+        <v>12</v>
+      </c>
+      <c r="C3" t="s" s="7">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s" s="7">
+        <v>14</v>
+      </c>
+      <c r="E3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="F3" t="b" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="9"/>
+      <c r="H3" t="b" s="8">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
